--- a/DailyLogBook_WIL  Hubert Mouton (5).xlsx
+++ b/DailyLogBook_WIL  Hubert Mouton (5).xlsx
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="69">
   <si>
     <t xml:space="preserve">Accumulative Daily Log Book for Work Integrated Learning </t>
   </si>
@@ -355,6 +355,9 @@
   </si>
   <si>
     <t xml:space="preserve">Meeting of Stakeholders for feedback; User Testing Prototype.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User testing protocol setup</t>
   </si>
   <si>
     <t xml:space="preserve">Comments of Supervisor:</t>
@@ -857,11 +860,11 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B56" activeCellId="0" sqref="B56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="52.43"/>
@@ -2106,7 +2109,9 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="21"/>
-      <c r="B56" s="21"/>
+      <c r="B56" s="21" t="s">
+        <v>45</v>
+      </c>
       <c r="C56" s="22"/>
       <c r="D56" s="23"/>
       <c r="E56" s="19"/>
@@ -2123,7 +2128,9 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="21"/>
-      <c r="B57" s="21"/>
+      <c r="B57" s="21" t="s">
+        <v>64</v>
+      </c>
       <c r="C57" s="22"/>
       <c r="D57" s="23"/>
       <c r="E57" s="19"/>
@@ -2303,7 +2310,7 @@
         <v>20</v>
       </c>
       <c r="M66" s="20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N66" s="20"/>
       <c r="O66" s="20"/>
@@ -2558,7 +2565,7 @@
         <v>20</v>
       </c>
       <c r="M80" s="20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N80" s="20"/>
       <c r="O80" s="20"/>
@@ -2786,7 +2793,7 @@
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="11"/>
       <c r="B94" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C94" s="11"/>
       <c r="D94" s="40"/>
@@ -2838,7 +2845,7 @@
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="1"/>
       <c r="B96" s="42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C96" s="1"/>
       <c r="D96" s="2"/>
@@ -2852,7 +2859,7 @@
     <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="1"/>
       <c r="B98" s="43" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C98" s="1"/>
       <c r="D98" s="2"/>
